--- a/biology/Botanique/Phlomis_fruticosa/Phlomis_fruticosa.xlsx
+++ b/biology/Botanique/Phlomis_fruticosa/Phlomis_fruticosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauge de Jérusalem, Phlomis ligneux, Phlomis frutescent
-Phlomis fruticosa, la Sauge de Jérusalem[2], est une espèce de plantes à fleurs de la famille des Lamiaceae, originaire d'Albanie, Chypre, Grèce, Italie, Turquie, et d'autres régions de l'ancienne Yougoslavie.
+Phlomis fruticosa, la Sauge de Jérusalem, est une espèce de plantes à fleurs de la famille des Lamiaceae, originaire d'Albanie, Chypre, Grèce, Italie, Turquie, et d'autres régions de l'ancienne Yougoslavie.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Phlomis fruticosa  L.[3],
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Sauge de Jérusalem[4],[5],[6], Phlomis ligneux[4],[5],
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Phlomis frutescent[4], sauge.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Phlomis fruticosa  L.,
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Sauge de Jérusalem Phlomis ligneux
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Phlomis frutescent, sauge.</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbuste sempervirent, pouvant atteindre 1 m de haut et 1,5 m de diamètre. Les feuilles, aromatiques et rappelant la sauge, sont ovales, longues de 5 à 10 cm, vert-gris, blanches sur la face inférieure, et couvertes de poils fins. Les fleurs jaune clair sont tubulaires, longues de 3 cm, disposées en verticilles d'une vingtaine sur de courts épis en été[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbuste sempervirent, pouvant atteindre 1 m de haut et 1,5 m de diamètre. Les feuilles, aromatiques et rappelant la sauge, sont ovales, longues de 5 à 10 cm, vert-gris, blanches sur la face inférieure, et couvertes de poils fins. Les fleurs jaune clair sont tubulaires, longues de 3 cm, disposées en verticilles d'une vingtaine sur de courts épis en été.
 	Phlomis fruticosa
 			Buisson.
 			Buisson fleuri.
@@ -583,11 +599,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778). En classification phylogénétique APG III (2009)[8], comme en classification classique de Cronquist (1981)[9], elle fait partie de la famille des Lamiaceae.
-Étymologie
-L'épithète spécifique fruticosa signifie « arbustif »[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778). En classification phylogénétique APG III (2009), comme en classification classique de Cronquist (1981), elle fait partie de la famille des Lamiaceae.
 </t>
         </is>
       </c>
@@ -613,13 +629,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique fruticosa signifie « arbustif ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phlomis_fruticosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phlomis_fruticosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante ornementale commune, qui a obtenu le Award of Garden Merit décerné par la Royal Horticultural Society[11].
-Échappée de jardins, cette espèce s'est naturalisée en plusieurs endroits du sud-ouest de l'Angleterre[12].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante ornementale commune, qui a obtenu le Award of Garden Merit décerné par la Royal Horticultural Society.
+Échappée de jardins, cette espèce s'est naturalisée en plusieurs endroits du sud-ouest de l'Angleterre.
 </t>
         </is>
       </c>
